--- a/Teams/West Ham_stats.xlsx
+++ b/Teams/West Ham_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6480,10 +6480,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -6727,7 +6731,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6844,7 +6848,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6961,7 +6965,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7078,7 +7082,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7195,7 +7199,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7312,7 +7316,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7429,7 +7433,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7546,7 +7550,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -7663,7 +7667,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -7780,7 +7784,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -7897,7 +7901,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8014,7 +8018,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8131,7 +8135,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8248,7 +8252,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8365,7 +8369,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8482,7 +8486,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8599,7 +8603,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -8716,7 +8720,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -8833,7 +8837,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -8950,7 +8954,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9067,7 +9071,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9184,7 +9188,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9301,7 +9305,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9418,7 +9422,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9535,7 +9539,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9652,7 +9656,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -9769,7 +9773,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -9886,7 +9890,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34-065</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -9949,7 +9953,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-063</t>
+          <t>18-064</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10204,9 +10208,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10424,7 +10428,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10508,7 +10512,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10592,7 +10596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -10676,7 +10680,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -10760,7 +10764,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -10844,7 +10848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -10928,7 +10932,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11012,7 +11016,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11096,7 +11100,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11180,7 +11184,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11254,7 +11258,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11338,7 +11342,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11420,7 +11424,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11504,7 +11508,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11578,7 +11582,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11662,7 +11666,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -11746,7 +11750,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -11830,7 +11834,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11912,7 +11916,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -11996,7 +12000,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12078,7 +12082,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12162,7 +12166,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12246,7 +12250,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12330,7 +12334,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12414,7 +12418,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12496,7 +12500,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -12578,7 +12582,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13071,7 +13075,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13173,7 +13177,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13275,7 +13279,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13377,7 +13381,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13479,7 +13483,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13581,7 +13585,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13683,7 +13687,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13785,7 +13789,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13887,7 +13891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13989,7 +13993,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14091,7 +14095,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14193,7 +14197,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14295,7 +14299,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14397,7 +14401,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14499,7 +14503,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14601,7 +14605,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14703,7 +14707,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14805,7 +14809,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14907,7 +14911,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15009,7 +15013,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15111,7 +15115,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15213,7 +15217,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -15315,7 +15319,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15417,7 +15421,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -15517,7 +15521,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -15619,7 +15623,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -15721,7 +15725,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -16193,7 +16197,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16271,7 +16275,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16349,7 +16353,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16427,7 +16431,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16505,7 +16509,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16583,7 +16587,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16661,7 +16665,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16739,7 +16743,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16817,7 +16821,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16895,7 +16899,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16973,7 +16977,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17051,7 +17055,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17129,7 +17133,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17207,7 +17211,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17285,7 +17289,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17363,7 +17367,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17441,7 +17445,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17519,7 +17523,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17597,7 +17601,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17675,7 +17679,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17753,7 +17757,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17831,7 +17835,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17909,7 +17913,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17987,7 +17991,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18065,7 +18069,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18143,7 +18147,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18221,7 +18225,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -18633,7 +18637,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18714,7 +18718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18795,7 +18799,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18876,7 +18880,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18957,7 +18961,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19038,7 +19042,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19119,7 +19123,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19200,7 +19204,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19281,7 +19285,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19362,7 +19366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19443,7 +19447,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19524,7 +19528,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19605,7 +19609,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19686,7 +19690,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19767,7 +19771,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19848,7 +19852,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19929,7 +19933,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20010,7 +20014,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20091,7 +20095,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20172,7 +20176,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20253,7 +20257,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20334,7 +20338,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20415,7 +20419,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20496,7 +20500,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20577,7 +20581,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20658,7 +20662,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20739,7 +20743,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21173,7 +21177,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21254,7 +21258,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21335,7 +21339,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21416,7 +21420,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21497,7 +21501,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21578,7 +21582,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21659,7 +21663,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21740,7 +21744,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21821,7 +21825,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21902,7 +21906,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21983,7 +21987,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22064,7 +22068,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22145,7 +22149,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22226,7 +22230,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22307,7 +22311,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22388,7 +22392,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22469,7 +22473,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22550,7 +22554,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22631,7 +22635,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22712,7 +22716,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22793,7 +22797,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22874,7 +22878,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22955,7 +22959,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23036,7 +23040,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23115,7 +23119,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23194,7 +23198,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23273,7 +23277,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -23728,7 +23732,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23827,7 +23831,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23926,7 +23930,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24025,7 +24029,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24124,7 +24128,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24223,7 +24227,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24322,7 +24326,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24421,7 +24425,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24520,7 +24524,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24619,7 +24623,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24714,7 +24718,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24813,7 +24817,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24912,7 +24916,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25011,7 +25015,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25110,7 +25114,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25209,7 +25213,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25308,7 +25312,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25407,7 +25411,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25506,7 +25510,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25601,7 +25605,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25700,7 +25704,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25799,7 +25803,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25898,7 +25902,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25997,7 +26001,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26096,7 +26100,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -26195,7 +26199,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26290,7 +26294,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -26587,10 +26591,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -26834,7 +26842,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26951,7 +26959,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-114</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -27068,7 +27076,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-090</t>
+          <t>28-091</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27185,7 +27193,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30-021</t>
+          <t>30-022</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27302,7 +27310,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-230</t>
+          <t>24-231</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27419,7 +27427,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30-229</t>
+          <t>30-230</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27536,7 +27544,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-206</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27653,7 +27661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-147</t>
+          <t>27-148</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27770,7 +27778,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-099</t>
+          <t>27-100</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27887,7 +27895,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-021</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -28004,7 +28012,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30-342</t>
+          <t>30-343</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28121,7 +28129,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-080</t>
+          <t>25-081</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28238,7 +28246,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-077</t>
+          <t>28-078</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28355,7 +28363,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39-336</t>
+          <t>39-337</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28472,7 +28480,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34-357</t>
+          <t>34-358</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28589,7 +28597,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-210</t>
+          <t>32-211</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28706,7 +28714,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-141</t>
+          <t>23-142</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28823,7 +28831,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35-095</t>
+          <t>35-096</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28940,7 +28948,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29057,7 +29065,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-099</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29174,7 +29182,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29291,7 +29299,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-240</t>
+          <t>32-241</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29408,7 +29416,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>24-312</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29525,7 +29533,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29642,7 +29650,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-039</t>
+          <t>19-040</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29759,7 +29767,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-030</t>
+          <t>19-031</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29876,7 +29884,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29993,7 +30001,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34-065</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -30056,7 +30064,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-063</t>
+          <t>18-064</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -30311,9 +30319,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/West Ham_stats.xlsx
+++ b/Teams/West Ham_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3022,7 +3022,9 @@
       <c r="N33" t="n">
         <v>46</v>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>39343</v>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Jarrod Bowen</t>
@@ -3658,7 +3660,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3729,7 +3731,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3800,7 +3802,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3871,7 +3873,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3942,7 +3944,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4013,7 +4015,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4084,7 +4086,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4155,7 +4157,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4226,7 +4228,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4297,7 +4299,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4368,7 +4370,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4439,7 +4441,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4510,7 +4512,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4581,7 +4583,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4652,7 +4654,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4723,7 +4725,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4794,7 +4796,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -4865,7 +4867,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -4936,7 +4938,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5007,7 +5009,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5078,7 +5080,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5149,7 +5151,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5220,7 +5222,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5291,7 +5293,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5362,7 +5364,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5433,7 +5435,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5504,7 +5506,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5722,12 +5724,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -5951,7 +5953,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6058,7 +6060,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6165,7 +6167,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6272,7 +6274,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6379,7 +6381,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6486,7 +6488,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6593,7 +6595,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6700,7 +6702,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6807,7 +6809,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6914,7 +6916,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7021,7 +7023,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7128,7 +7130,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7235,7 +7237,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7342,7 +7344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7449,7 +7451,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7556,7 +7558,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7663,7 +7665,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7770,7 +7772,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7877,7 +7879,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7984,7 +7986,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8091,7 +8093,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8198,7 +8200,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8305,7 +8307,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8412,7 +8414,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8519,7 +8521,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8626,7 +8628,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -8733,7 +8735,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -8840,7 +8842,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>34-069</t>
+          <t>34-072</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -8893,7 +8895,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-067</t>
+          <t>18-070</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9138,10 +9140,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -9319,7 +9321,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9393,7 +9395,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9467,7 +9469,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -9541,7 +9543,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -9615,7 +9617,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -9689,7 +9691,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -9763,7 +9765,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -9837,7 +9839,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -9911,7 +9913,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -9985,7 +9987,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10049,7 +10051,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10123,7 +10125,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10195,7 +10197,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10269,7 +10271,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10333,7 +10335,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10407,7 +10409,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10481,7 +10483,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -10555,7 +10557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -10627,7 +10629,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -10701,7 +10703,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -10773,7 +10775,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -10847,7 +10849,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -10921,7 +10923,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -10995,7 +10997,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11069,7 +11071,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11141,7 +11143,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11213,7 +11215,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -11629,7 +11631,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11721,7 +11723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11813,7 +11815,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11905,7 +11907,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11997,7 +11999,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12089,7 +12091,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12181,7 +12183,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12273,7 +12275,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12365,7 +12367,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12457,7 +12459,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12549,7 +12551,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12641,7 +12643,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12733,7 +12735,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12825,7 +12827,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12917,7 +12919,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13009,7 +13011,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13101,7 +13103,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13193,7 +13195,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13285,7 +13287,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13377,7 +13379,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13469,7 +13471,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13561,7 +13563,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13653,7 +13655,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13745,7 +13747,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13835,7 +13837,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13927,7 +13929,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14019,7 +14021,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -14438,7 +14440,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14506,7 +14508,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14574,7 +14576,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14642,7 +14644,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14710,7 +14712,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14778,7 +14780,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14846,7 +14848,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14914,7 +14916,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14982,7 +14984,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15050,7 +15052,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15118,7 +15120,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15186,7 +15188,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15254,7 +15256,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15322,7 +15324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15390,7 +15392,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15458,7 +15460,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15526,7 +15528,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15594,7 +15596,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15662,7 +15664,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15730,7 +15732,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15798,7 +15800,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15866,7 +15868,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15934,7 +15936,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16002,7 +16004,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16070,7 +16072,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16138,7 +16140,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16206,7 +16208,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -16569,7 +16571,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16640,7 +16642,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16711,7 +16713,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16782,7 +16784,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16853,7 +16855,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16924,7 +16926,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16995,7 +16997,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17066,7 +17068,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17137,7 +17139,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17208,7 +17210,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17279,7 +17281,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17350,7 +17352,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17421,7 +17423,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17492,7 +17494,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17563,7 +17565,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17634,7 +17636,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17705,7 +17707,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17776,7 +17778,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17847,7 +17849,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17918,7 +17920,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17989,7 +17991,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18060,7 +18062,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18131,7 +18133,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18202,7 +18204,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18273,7 +18275,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18344,7 +18346,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18415,7 +18417,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18784,7 +18786,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18855,7 +18857,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18926,7 +18928,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18997,7 +18999,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19068,7 +19070,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19139,7 +19141,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19210,7 +19212,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19281,7 +19283,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19352,7 +19354,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19423,7 +19425,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19494,7 +19496,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19565,7 +19567,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19636,7 +19638,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19707,7 +19709,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19778,7 +19780,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19849,7 +19851,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19920,7 +19922,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19991,7 +19993,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20062,7 +20064,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20133,7 +20135,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20204,7 +20206,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20275,7 +20277,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20346,7 +20348,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20417,7 +20419,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20486,7 +20488,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20555,7 +20557,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20624,7 +20626,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21030,7 +21032,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21119,7 +21121,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21208,7 +21210,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21297,7 +21299,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21386,7 +21388,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21475,7 +21477,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21564,7 +21566,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21653,7 +21655,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21742,7 +21744,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21831,7 +21833,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21916,7 +21918,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22005,7 +22007,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22094,7 +22096,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22183,7 +22185,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22272,7 +22274,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22361,7 +22363,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22450,7 +22452,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22539,7 +22541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22628,7 +22630,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22713,7 +22715,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22802,7 +22804,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22891,7 +22893,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22980,7 +22982,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23069,7 +23071,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23158,7 +23160,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23247,7 +23249,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23332,7 +23334,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -23602,12 +23604,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -23831,7 +23833,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23938,7 +23940,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-118</t>
+          <t>27-121</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24045,7 +24047,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-097</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24152,7 +24154,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-025</t>
+          <t>30-028</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -24259,7 +24261,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-234</t>
+          <t>24-237</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24366,7 +24368,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30-233</t>
+          <t>30-236</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24473,7 +24475,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27-209</t>
+          <t>27-212</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24580,7 +24582,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-151</t>
+          <t>27-154</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24687,7 +24689,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-103</t>
+          <t>27-106</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24794,7 +24796,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-025</t>
+          <t>32-028</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24901,7 +24903,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-346</t>
+          <t>30-349</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -25008,7 +25010,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-084</t>
+          <t>25-087</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25115,7 +25117,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-081</t>
+          <t>28-084</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25222,7 +25224,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39-340</t>
+          <t>39-343</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25329,7 +25331,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34-361</t>
+          <t>34-364</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25436,7 +25438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-214</t>
+          <t>32-217</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25543,7 +25545,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-145</t>
+          <t>23-148</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25650,7 +25652,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35-099</t>
+          <t>35-102</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25757,7 +25759,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25864,7 +25866,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19-102</t>
+          <t>19-105</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25971,7 +25973,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -26078,7 +26080,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-244</t>
+          <t>32-247</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26185,7 +26187,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24-315</t>
+          <t>24-318</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26292,7 +26294,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26399,7 +26401,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19-043</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26506,7 +26508,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-034</t>
+          <t>19-037</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26613,7 +26615,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26720,7 +26722,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>34-069</t>
+          <t>34-072</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26773,7 +26775,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-067</t>
+          <t>18-070</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27018,10 +27020,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
